--- a/biology/Histoire de la zoologie et de la botanique/Tord_Tamerlan_Teodor_Thorell/Tord_Tamerlan_Teodor_Thorell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tord_Tamerlan_Teodor_Thorell/Tord_Tamerlan_Teodor_Thorell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tord Tamerlan Teodor Thorell est un arachnologiste suédois, né le 3 mai 1830 à Göteborg et mort le 22 décembre 1901 à Helsingborg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il donne d'abord des conférences à l'université d'Uppsala en 1856, puis en professeur-adjoint en 1859 avant d'obtenir la chaire de zoologie en 1864. Des ennuis de santé l'obligent à quitter la Suède et à s'installer dans le sud de l'Europe en 1877.
 Il demeure assez longtemps chez le marquis de Giacomo Doria (1840-1913), fondateur du Museo civico di storia naturale de Gênes. Thorell étudie d’ailleurs les collections arachnologiques de ce Muséum.
